--- a/Design.xlsx
+++ b/Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\micropop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF66B3-7312-4608-97D6-8AFDCBE0B022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4FF7F-4DD1-4E43-827A-F58F7091DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{2B824119-5A85-41A2-A086-759845A0F147}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>S</t>
   </si>
@@ -74,13 +74,139 @@
     <t>RS</t>
   </si>
   <si>
-    <t>OP</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
     <t>E3</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>ALU Ops</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LSR</t>
+  </si>
+  <si>
+    <t>JMP Ops</t>
+  </si>
+  <si>
+    <t>NEQ</t>
+  </si>
+  <si>
+    <t>R/W Ops</t>
+  </si>
+  <si>
+    <t>CTR Ops</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>EQU</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>WRD</t>
+  </si>
+  <si>
+    <t>WBT</t>
+  </si>
+  <si>
+    <t>WDT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>UGE</t>
+  </si>
+  <si>
+    <t>ULT</t>
+  </si>
+  <si>
+    <t>UGT</t>
+  </si>
+  <si>
+    <t>ULE</t>
+  </si>
+  <si>
+    <t>SGE</t>
+  </si>
+  <si>
+    <t>SGT</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>RES</t>
   </si>
 </sst>
 </file>
@@ -105,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -152,18 +278,249 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,17 +531,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6565653-3098-4208-B8CB-DDF1810C7860}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,311 +914,756 @@
       <c r="P1" s="3">
         <v>0</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="31">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5">
+      <c r="K3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="32">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15">
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P3" s="16">
         <v>0</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="33">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9">
+        <v>8</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="10">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="L12" s="10">
+        <v>2</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="L13" s="10">
+        <v>3</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="L14" s="10">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="L15" s="10">
+        <v>5</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="10">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="L16" s="10">
+        <v>6</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="10">
+        <v>7</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10">
+        <v>9</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
         <v>3</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="F23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="s">
+      <c r="F24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
         <v>5</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="s">
+      <c r="F25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
         <v>6</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K3:M3"/>
+  <mergeCells count="82">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -800,6 +1673,14 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
